--- a/data/pca/factorExposure/factorExposure_2016-02-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-02-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01430403370570312</v>
+        <v>0.01710656679438517</v>
       </c>
       <c r="C2">
-        <v>0.06300563838155734</v>
+        <v>0.04663195015723526</v>
       </c>
       <c r="D2">
-        <v>-0.0535022825010962</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.08121599209088559</v>
+      </c>
+      <c r="E2">
+        <v>0.119856934873094</v>
+      </c>
+      <c r="F2">
+        <v>0.04207097528393145</v>
+      </c>
+      <c r="G2">
+        <v>-0.03405993409213195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03555460686458492</v>
+        <v>0.02194354216036103</v>
       </c>
       <c r="C3">
-        <v>0.1223195391678076</v>
+        <v>0.06430577774671449</v>
       </c>
       <c r="D3">
-        <v>-0.0660928991791065</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07882166870417641</v>
+      </c>
+      <c r="E3">
+        <v>0.09249215783310127</v>
+      </c>
+      <c r="F3">
+        <v>-0.02766755224354018</v>
+      </c>
+      <c r="G3">
+        <v>-0.09597183302442895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06103235155852228</v>
+        <v>0.06166598060072694</v>
       </c>
       <c r="C4">
-        <v>0.06343309900250602</v>
+        <v>0.06360622994600328</v>
       </c>
       <c r="D4">
-        <v>-0.04304842563372843</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08017356330816421</v>
+      </c>
+      <c r="E4">
+        <v>0.1093444546919372</v>
+      </c>
+      <c r="F4">
+        <v>-0.03167680017778987</v>
+      </c>
+      <c r="G4">
+        <v>0.04028901613585985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04365231746380915</v>
+        <v>0.04089860008472471</v>
       </c>
       <c r="C6">
-        <v>0.03824277456847096</v>
+        <v>0.02864470483122804</v>
       </c>
       <c r="D6">
-        <v>-0.03954802300890848</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.08166490644563294</v>
+      </c>
+      <c r="E6">
+        <v>0.09752821394307948</v>
+      </c>
+      <c r="F6">
+        <v>-0.02087552627353399</v>
+      </c>
+      <c r="G6">
+        <v>-0.00107802564948469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.03170734358165585</v>
+        <v>0.02377984964743345</v>
       </c>
       <c r="C7">
-        <v>0.03665914133656062</v>
+        <v>0.03559584573052778</v>
       </c>
       <c r="D7">
-        <v>-0.01756305992357295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.06301849937929069</v>
+      </c>
+      <c r="E7">
+        <v>0.0860281419153332</v>
+      </c>
+      <c r="F7">
+        <v>-0.008039572870714813</v>
+      </c>
+      <c r="G7">
+        <v>0.06511150726325354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.01043244880733064</v>
+        <v>0.008754679391829744</v>
       </c>
       <c r="C8">
-        <v>0.0469675353728336</v>
+        <v>0.03815092130310619</v>
       </c>
       <c r="D8">
-        <v>-0.03491804594635044</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.05262858370686627</v>
+      </c>
+      <c r="E8">
+        <v>0.07085963725768829</v>
+      </c>
+      <c r="F8">
+        <v>-0.0145983199474953</v>
+      </c>
+      <c r="G8">
+        <v>-0.01304805992144229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.04175287474478639</v>
+        <v>0.04443137901945141</v>
       </c>
       <c r="C9">
-        <v>0.04568277867488259</v>
+        <v>0.05079320643925757</v>
       </c>
       <c r="D9">
-        <v>-0.03729222481784687</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06782532719256643</v>
+      </c>
+      <c r="E9">
+        <v>0.0872641313663353</v>
+      </c>
+      <c r="F9">
+        <v>-0.008177245579254654</v>
+      </c>
+      <c r="G9">
+        <v>0.04650353574807226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08052166477166171</v>
+        <v>0.1055567421252487</v>
       </c>
       <c r="C10">
-        <v>-0.1848463967077893</v>
+        <v>-0.1994846929919129</v>
       </c>
       <c r="D10">
-        <v>-0.01069525229761216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.005023318409997912</v>
+      </c>
+      <c r="E10">
+        <v>0.03993436729732031</v>
+      </c>
+      <c r="F10">
+        <v>0.001811392878650805</v>
+      </c>
+      <c r="G10">
+        <v>0.03448417901499359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04538867678409816</v>
+        <v>0.03858331354728479</v>
       </c>
       <c r="C11">
-        <v>0.05199158855810756</v>
+        <v>0.04816167263617617</v>
       </c>
       <c r="D11">
-        <v>-0.02735653459225208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04404645869862836</v>
+      </c>
+      <c r="E11">
+        <v>0.0391607983480351</v>
+      </c>
+      <c r="F11">
+        <v>-0.01385192264692242</v>
+      </c>
+      <c r="G11">
+        <v>0.04157101195737471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04898551941969972</v>
+        <v>0.04106523459414354</v>
       </c>
       <c r="C12">
-        <v>0.04722375629998982</v>
+        <v>0.04634065346245015</v>
       </c>
       <c r="D12">
-        <v>-0.006285333806701552</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.03673199970658908</v>
+      </c>
+      <c r="E12">
+        <v>0.04954894779609751</v>
+      </c>
+      <c r="F12">
+        <v>-0.005680633343765082</v>
+      </c>
+      <c r="G12">
+        <v>0.03668496397722861</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01733152856105833</v>
+        <v>0.0170347604505464</v>
       </c>
       <c r="C13">
-        <v>0.05669535016840593</v>
+        <v>0.04374328679539333</v>
       </c>
       <c r="D13">
-        <v>-0.02200225953060726</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.07475279334809773</v>
+      </c>
+      <c r="E13">
+        <v>0.130814915470999</v>
+      </c>
+      <c r="F13">
+        <v>-0.01646619449491856</v>
+      </c>
+      <c r="G13">
+        <v>0.05100331908442578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01716958505903009</v>
+        <v>0.009709335614129599</v>
       </c>
       <c r="C14">
-        <v>0.03161532920354958</v>
+        <v>0.0299311657362751</v>
       </c>
       <c r="D14">
-        <v>-0.01117181620278033</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.04836946283721761</v>
+      </c>
+      <c r="E14">
+        <v>0.08070926573488657</v>
+      </c>
+      <c r="F14">
+        <v>0.01484686409013379</v>
+      </c>
+      <c r="G14">
+        <v>0.03888660641918841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0005152004245608133</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006525647342978519</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01189199452767981</v>
+      </c>
+      <c r="E15">
+        <v>0.01234297875456621</v>
+      </c>
+      <c r="F15">
+        <v>0.0006003274116585642</v>
+      </c>
+      <c r="G15">
+        <v>-0.0005841804148614735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.04450516937523248</v>
+        <v>0.03774367765216372</v>
       </c>
       <c r="C16">
-        <v>0.04937756053122414</v>
+        <v>0.04585354674764564</v>
       </c>
       <c r="D16">
-        <v>-0.01610112729065722</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.03977264372018497</v>
+      </c>
+      <c r="E16">
+        <v>0.052169818135113</v>
+      </c>
+      <c r="F16">
+        <v>0.004867975936613029</v>
+      </c>
+      <c r="G16">
+        <v>0.03318528828761307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02584915299446854</v>
+        <v>0.01805375131102714</v>
       </c>
       <c r="C19">
-        <v>0.0600459871197763</v>
+        <v>0.04427273687477536</v>
       </c>
       <c r="D19">
-        <v>-0.08381576614563939</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1027457158468567</v>
+      </c>
+      <c r="E19">
+        <v>0.1233238144250954</v>
+      </c>
+      <c r="F19">
+        <v>0.01828120671616497</v>
+      </c>
+      <c r="G19">
+        <v>-0.004481624960628945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.02317654508202209</v>
+        <v>0.01824214313457614</v>
       </c>
       <c r="C20">
-        <v>0.05047767231573613</v>
+        <v>0.04171735974862033</v>
       </c>
       <c r="D20">
-        <v>-0.02002451342561294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.05603336000034555</v>
+      </c>
+      <c r="E20">
+        <v>0.09816650737865834</v>
+      </c>
+      <c r="F20">
+        <v>0.000187517785528741</v>
+      </c>
+      <c r="G20">
+        <v>0.02395213781316852</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02216297553296654</v>
+        <v>0.01747107085116321</v>
       </c>
       <c r="C21">
-        <v>0.05858405777771731</v>
+        <v>0.04767823985296601</v>
       </c>
       <c r="D21">
-        <v>-0.03750861996999884</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.08330634223208655</v>
+      </c>
+      <c r="E21">
+        <v>0.1509783068986762</v>
+      </c>
+      <c r="F21">
+        <v>0.02552743868061422</v>
+      </c>
+      <c r="G21">
+        <v>0.06521355862690113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0007947268169935674</v>
+        <v>0.005285155385668843</v>
       </c>
       <c r="C22">
-        <v>0.01380318745950409</v>
+        <v>0.03050049708358478</v>
       </c>
       <c r="D22">
-        <v>-0.02891724621526881</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.06875340460520878</v>
+      </c>
+      <c r="E22">
+        <v>0.07782276320264783</v>
+      </c>
+      <c r="F22">
+        <v>-0.06495815853389565</v>
+      </c>
+      <c r="G22">
+        <v>-0.04162411087049429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0008017373703876203</v>
+        <v>0.005404861774449523</v>
       </c>
       <c r="C23">
-        <v>0.01380484173802467</v>
+        <v>0.03055681523182179</v>
       </c>
       <c r="D23">
-        <v>-0.0288722122196963</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.06807672189940235</v>
+      </c>
+      <c r="E23">
+        <v>0.0779819431758058</v>
+      </c>
+      <c r="F23">
+        <v>-0.06493503371050802</v>
+      </c>
+      <c r="G23">
+        <v>-0.04091589734085276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0413751170425423</v>
+        <v>0.0387760350140766</v>
       </c>
       <c r="C24">
-        <v>0.05076103241390658</v>
+        <v>0.05387264809607438</v>
       </c>
       <c r="D24">
-        <v>-0.01990910429433489</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.04098757882886545</v>
+      </c>
+      <c r="E24">
+        <v>0.0570994758030761</v>
+      </c>
+      <c r="F24">
+        <v>0.0005575987137697108</v>
+      </c>
+      <c r="G24">
+        <v>0.04823344240128655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.05147287403604248</v>
+        <v>0.04504163558389505</v>
       </c>
       <c r="C25">
-        <v>0.05509046056682289</v>
+        <v>0.05380556200279838</v>
       </c>
       <c r="D25">
-        <v>-0.01448737723125944</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0376912029680281</v>
+      </c>
+      <c r="E25">
+        <v>0.05085406731299202</v>
+      </c>
+      <c r="F25">
+        <v>-0.01607881483513805</v>
+      </c>
+      <c r="G25">
+        <v>0.05115509769239538</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.0234889474170787</v>
+        <v>0.01978247928203288</v>
       </c>
       <c r="C26">
-        <v>0.01575894786007022</v>
+        <v>0.01777265158564491</v>
       </c>
       <c r="D26">
-        <v>-0.02078821529174327</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0429904199082646</v>
+      </c>
+      <c r="E26">
+        <v>0.06414799268433899</v>
+      </c>
+      <c r="F26">
+        <v>0.01499076521430922</v>
+      </c>
+      <c r="G26">
+        <v>0.01351755298195373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1002756272326711</v>
+        <v>0.144161340894518</v>
       </c>
       <c r="C28">
-        <v>-0.2574987797778502</v>
+        <v>-0.2580669293231507</v>
       </c>
       <c r="D28">
-        <v>-4.938172043455729e-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02094630907780807</v>
+      </c>
+      <c r="E28">
+        <v>0.06522126678665864</v>
+      </c>
+      <c r="F28">
+        <v>0.002494532070215941</v>
+      </c>
+      <c r="G28">
+        <v>0.06937781045545773</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01186443459318667</v>
+        <v>0.00871669445051294</v>
       </c>
       <c r="C29">
-        <v>0.0277198941350076</v>
+        <v>0.02715515430524002</v>
       </c>
       <c r="D29">
-        <v>-0.003810617380860243</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.04092027831544844</v>
+      </c>
+      <c r="E29">
+        <v>0.07984951292162343</v>
+      </c>
+      <c r="F29">
+        <v>0.004744583239290025</v>
+      </c>
+      <c r="G29">
+        <v>0.0473054944943006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04408353616705754</v>
+        <v>0.04475795214948464</v>
       </c>
       <c r="C30">
-        <v>0.04735816366461102</v>
+        <v>0.0555134244532351</v>
       </c>
       <c r="D30">
-        <v>-0.09717091805429977</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1276824428009898</v>
+      </c>
+      <c r="E30">
+        <v>0.1064868879659489</v>
+      </c>
+      <c r="F30">
+        <v>0.002342321437275003</v>
+      </c>
+      <c r="G30">
+        <v>-0.01792465802693218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0681568903399303</v>
+        <v>0.06413760427650328</v>
       </c>
       <c r="C31">
-        <v>0.04937123926012386</v>
+        <v>0.06255852651393153</v>
       </c>
       <c r="D31">
-        <v>0.02488122488813281</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.007201524397679301</v>
+      </c>
+      <c r="E31">
+        <v>0.08041704823205287</v>
+      </c>
+      <c r="F31">
+        <v>-0.03967751470894176</v>
+      </c>
+      <c r="G31">
+        <v>0.03611974578639958</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0005975917163734482</v>
+        <v>0.007173945822460051</v>
       </c>
       <c r="C32">
-        <v>0.03760530903084721</v>
+        <v>0.03394112401858265</v>
       </c>
       <c r="D32">
-        <v>-0.03978740671180007</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05915897621799793</v>
+      </c>
+      <c r="E32">
+        <v>0.1029085735314606</v>
+      </c>
+      <c r="F32">
+        <v>0.0307190709432451</v>
+      </c>
+      <c r="G32">
+        <v>0.06399208293243422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03884597316647761</v>
+        <v>0.03168684485816058</v>
       </c>
       <c r="C33">
-        <v>0.05821625820130722</v>
+        <v>0.05192946280957468</v>
       </c>
       <c r="D33">
-        <v>-0.06191810878561655</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09684884660115818</v>
+      </c>
+      <c r="E33">
+        <v>0.1064541313033894</v>
+      </c>
+      <c r="F33">
+        <v>-0.01523342817106027</v>
+      </c>
+      <c r="G33">
+        <v>0.04093620358968574</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04482425690727816</v>
+        <v>0.04008033052625207</v>
       </c>
       <c r="C34">
-        <v>0.06434078383516066</v>
+        <v>0.06254963051525674</v>
       </c>
       <c r="D34">
-        <v>-0.03302192046501248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04668144305694927</v>
+      </c>
+      <c r="E34">
+        <v>0.04025084171113257</v>
+      </c>
+      <c r="F34">
+        <v>-0.003207650606111139</v>
+      </c>
+      <c r="G34">
+        <v>0.05428553744375462</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>3.694772939987533e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0004533446142241705</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0002801272349113103</v>
+      </c>
+      <c r="E35">
+        <v>-0.0005524933345921524</v>
+      </c>
+      <c r="F35">
+        <v>0.0001969579399959711</v>
+      </c>
+      <c r="G35">
+        <v>9.910407416962662e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02324250507349418</v>
+        <v>0.01913262958301541</v>
       </c>
       <c r="C36">
-        <v>0.01728572868178796</v>
+        <v>0.01479050590006499</v>
       </c>
       <c r="D36">
-        <v>-0.01247524236305139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04409283170886855</v>
+      </c>
+      <c r="E36">
+        <v>0.07529765097201724</v>
+      </c>
+      <c r="F36">
+        <v>-0.001701595332474904</v>
+      </c>
+      <c r="G36">
+        <v>0.03489081994377042</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03393440220088528</v>
+        <v>0.02540000246498294</v>
       </c>
       <c r="C38">
-        <v>0.03309059640317948</v>
+        <v>0.02624471674533307</v>
       </c>
       <c r="D38">
-        <v>0.003530581339638188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.03709409565633405</v>
+      </c>
+      <c r="E38">
+        <v>0.06259849840449364</v>
+      </c>
+      <c r="F38">
+        <v>-0.003430370378658741</v>
+      </c>
+      <c r="G38">
+        <v>-0.009660153129996034</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.05369506308417426</v>
+        <v>0.04609163034209916</v>
       </c>
       <c r="C39">
-        <v>0.06121902583214627</v>
+        <v>0.06274794637387318</v>
       </c>
       <c r="D39">
-        <v>-0.03890386467540118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07208263720467191</v>
+      </c>
+      <c r="E39">
+        <v>0.06288137339783387</v>
+      </c>
+      <c r="F39">
+        <v>0.01887212434580486</v>
+      </c>
+      <c r="G39">
+        <v>0.03367370901326285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01507357649767001</v>
+        <v>0.01681213969821458</v>
       </c>
       <c r="C40">
-        <v>0.05786689089854115</v>
+        <v>0.0418315637475644</v>
       </c>
       <c r="D40">
-        <v>-0.01434520082493401</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04965337474628165</v>
+      </c>
+      <c r="E40">
+        <v>0.1195765012933529</v>
+      </c>
+      <c r="F40">
+        <v>-0.02618935442489652</v>
+      </c>
+      <c r="G40">
+        <v>0.01715728796995832</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02731325396086698</v>
+        <v>0.0221891284209322</v>
       </c>
       <c r="C41">
-        <v>0.01303227978720713</v>
+        <v>0.01052932157952744</v>
       </c>
       <c r="D41">
-        <v>-0.009883088298202013</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02910648983230562</v>
+      </c>
+      <c r="E41">
+        <v>0.07615438523710304</v>
+      </c>
+      <c r="F41">
+        <v>0.002118177958232655</v>
+      </c>
+      <c r="G41">
+        <v>0.02560170085785348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04955016820737503</v>
+        <v>0.03382703515777378</v>
       </c>
       <c r="C43">
-        <v>0.03434576222596213</v>
+        <v>0.02464918276504249</v>
       </c>
       <c r="D43">
-        <v>-0.0250743598219465</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.05835992494898809</v>
+      </c>
+      <c r="E43">
+        <v>0.08696871091162413</v>
+      </c>
+      <c r="F43">
+        <v>-0.01943083634318996</v>
+      </c>
+      <c r="G43">
+        <v>0.04026719193359016</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01969149777467804</v>
+        <v>0.02058538403889657</v>
       </c>
       <c r="C44">
-        <v>0.06602912230425011</v>
+        <v>0.04747605330688973</v>
       </c>
       <c r="D44">
-        <v>-0.007321827959494162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05244915587007078</v>
+      </c>
+      <c r="E44">
+        <v>0.108162158546813</v>
+      </c>
+      <c r="F44">
+        <v>0.01909987720888363</v>
+      </c>
+      <c r="G44">
+        <v>0.02946790561197838</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0174742517003701</v>
+        <v>0.01554886307602631</v>
       </c>
       <c r="C46">
-        <v>0.0273849710994124</v>
+        <v>0.03054560346371516</v>
       </c>
       <c r="D46">
-        <v>-2.272551220144049e-05</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03636891133923448</v>
+      </c>
+      <c r="E46">
+        <v>0.08670293716051677</v>
+      </c>
+      <c r="F46">
+        <v>0.01845937462517315</v>
+      </c>
+      <c r="G46">
+        <v>0.06461159096520172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.09610877085859387</v>
+        <v>0.09593121971332283</v>
       </c>
       <c r="C47">
-        <v>0.06992655586668327</v>
+        <v>0.08135794582086571</v>
       </c>
       <c r="D47">
-        <v>0.04047021849010166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.009309785524844448</v>
+      </c>
+      <c r="E47">
+        <v>0.0673459432025227</v>
+      </c>
+      <c r="F47">
+        <v>-0.02289832914897166</v>
+      </c>
+      <c r="G47">
+        <v>0.06506051480092601</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02570865952562043</v>
+        <v>0.02117776824092392</v>
       </c>
       <c r="C48">
-        <v>0.01217561152562418</v>
+        <v>0.01592760086842358</v>
       </c>
       <c r="D48">
-        <v>0.007973807317306705</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.03184370706158385</v>
+      </c>
+      <c r="E48">
+        <v>0.09082748588452746</v>
+      </c>
+      <c r="F48">
+        <v>0.006245294569864277</v>
+      </c>
+      <c r="G48">
+        <v>0.04498398738450748</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08602962583570914</v>
+        <v>0.07369586634121143</v>
       </c>
       <c r="C50">
-        <v>0.08931339834665335</v>
+        <v>0.07672204691734288</v>
       </c>
       <c r="D50">
-        <v>0.0392342189632577</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.009350363077916923</v>
+      </c>
+      <c r="E50">
+        <v>0.08618786785592628</v>
+      </c>
+      <c r="F50">
+        <v>-0.05167192141179212</v>
+      </c>
+      <c r="G50">
+        <v>0.01813703486674888</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01887340539070095</v>
+        <v>0.01432770769237278</v>
       </c>
       <c r="C51">
-        <v>0.05024003284903528</v>
+        <v>0.02999528684806289</v>
       </c>
       <c r="D51">
-        <v>-0.06446905165536217</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.07795634993837885</v>
+      </c>
+      <c r="E51">
+        <v>0.07145134703646394</v>
+      </c>
+      <c r="F51">
+        <v>0.0135330559383663</v>
+      </c>
+      <c r="G51">
+        <v>0.01219484697870484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08748544828598695</v>
+        <v>0.100846729731546</v>
       </c>
       <c r="C53">
-        <v>0.08100569122836634</v>
+        <v>0.08857170663642476</v>
       </c>
       <c r="D53">
-        <v>0.06224016746889042</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04773613307844188</v>
+      </c>
+      <c r="E53">
+        <v>0.08634298686281393</v>
+      </c>
+      <c r="F53">
+        <v>-0.01505596643046051</v>
+      </c>
+      <c r="G53">
+        <v>0.07681880480749181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.04231712897607701</v>
+        <v>0.03290695521099601</v>
       </c>
       <c r="C54">
-        <v>0.03377150562365702</v>
+        <v>0.03224092807564072</v>
       </c>
       <c r="D54">
-        <v>-0.01864323751349193</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.05013212558242664</v>
+      </c>
+      <c r="E54">
+        <v>0.08167677463533346</v>
+      </c>
+      <c r="F54">
+        <v>0.00794958358701524</v>
+      </c>
+      <c r="G54">
+        <v>0.04447431468154615</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.08521567291451862</v>
+        <v>0.09315351658477022</v>
       </c>
       <c r="C55">
-        <v>0.05633785568058611</v>
+        <v>0.0690776524190934</v>
       </c>
       <c r="D55">
-        <v>0.06156348429109344</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04815800837026142</v>
+      </c>
+      <c r="E55">
+        <v>0.05366288164802445</v>
+      </c>
+      <c r="F55">
+        <v>-0.03039093543103176</v>
+      </c>
+      <c r="G55">
+        <v>0.03739352812733063</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1472980812278163</v>
+        <v>0.1522002597748706</v>
       </c>
       <c r="C56">
-        <v>0.08644734706573616</v>
+        <v>0.104678828596448</v>
       </c>
       <c r="D56">
-        <v>0.06638151135739902</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05647539700331666</v>
+      </c>
+      <c r="E56">
+        <v>0.04792670794340117</v>
+      </c>
+      <c r="F56">
+        <v>-0.02593684849835209</v>
+      </c>
+      <c r="G56">
+        <v>0.04683732328008493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0530837667278064</v>
+        <v>0.04096672517063632</v>
       </c>
       <c r="C58">
-        <v>0.01516529171375772</v>
+        <v>0.01999438265675827</v>
       </c>
       <c r="D58">
-        <v>-0.2158148227103172</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2801953045556057</v>
+      </c>
+      <c r="E58">
+        <v>0.3514182621975606</v>
+      </c>
+      <c r="F58">
+        <v>-0.1422964021205572</v>
+      </c>
+      <c r="G58">
+        <v>-0.5185461546741139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1287284926811668</v>
+        <v>0.1457087195672788</v>
       </c>
       <c r="C59">
-        <v>-0.2039635289922025</v>
+        <v>-0.1918569741234172</v>
       </c>
       <c r="D59">
-        <v>-0.04231077418108282</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03876066002043996</v>
+      </c>
+      <c r="E59">
+        <v>0.0298224732528801</v>
+      </c>
+      <c r="F59">
+        <v>0.02958738132766209</v>
+      </c>
+      <c r="G59">
+        <v>-0.01452636218314762</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2837439533189403</v>
+        <v>0.2596868678193193</v>
       </c>
       <c r="C60">
-        <v>0.1091220520986172</v>
+        <v>0.09722000554401616</v>
       </c>
       <c r="D60">
-        <v>-0.2399736046995991</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2255112423571426</v>
+      </c>
+      <c r="E60">
+        <v>-0.2629841585227864</v>
+      </c>
+      <c r="F60">
+        <v>-0.1173329001541017</v>
+      </c>
+      <c r="G60">
+        <v>-0.01350739009790526</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.05203245083930162</v>
+        <v>0.04704547765411991</v>
       </c>
       <c r="C61">
-        <v>0.05416662689989751</v>
+        <v>0.05573237283087127</v>
       </c>
       <c r="D61">
-        <v>-0.03748389477825435</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.06029681160963074</v>
+      </c>
+      <c r="E61">
+        <v>0.06418477195396181</v>
+      </c>
+      <c r="F61">
+        <v>0.0006707712121892731</v>
+      </c>
+      <c r="G61">
+        <v>0.05058018642803854</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01858862727772602</v>
+        <v>0.01832263642746401</v>
       </c>
       <c r="C63">
-        <v>0.03273639288425689</v>
+        <v>0.03008708276885829</v>
       </c>
       <c r="D63">
-        <v>0.004220726956511199</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.03688747604099685</v>
+      </c>
+      <c r="E63">
+        <v>0.08493166024779694</v>
+      </c>
+      <c r="F63">
+        <v>-0.01831015328546047</v>
+      </c>
+      <c r="G63">
+        <v>0.02233718001329851</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.05498679415917895</v>
+        <v>0.05881127441017767</v>
       </c>
       <c r="C64">
-        <v>0.0486344486790561</v>
+        <v>0.06164291747556531</v>
       </c>
       <c r="D64">
-        <v>-0.017874297011036</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02428196485662376</v>
+      </c>
+      <c r="E64">
+        <v>0.05624077156951015</v>
+      </c>
+      <c r="F64">
+        <v>0.01360458886061692</v>
+      </c>
+      <c r="G64">
+        <v>0.07635485220149538</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.07645211253823654</v>
+        <v>0.06341740170867766</v>
       </c>
       <c r="C65">
-        <v>0.02755953206576961</v>
+        <v>0.02563655343635984</v>
       </c>
       <c r="D65">
-        <v>-0.06147955039711973</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.09907391982538535</v>
+      </c>
+      <c r="E65">
+        <v>0.06027828047009536</v>
+      </c>
+      <c r="F65">
+        <v>-0.02229068078388037</v>
+      </c>
+      <c r="G65">
+        <v>-0.03634398729527166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.0644731424105206</v>
+        <v>0.05673211155669721</v>
       </c>
       <c r="C66">
-        <v>0.07911677585115895</v>
+        <v>0.07698310556625643</v>
       </c>
       <c r="D66">
-        <v>-0.05790446194922248</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09491132454167113</v>
+      </c>
+      <c r="E66">
+        <v>0.07675538431711218</v>
+      </c>
+      <c r="F66">
+        <v>0.0001421040667494505</v>
+      </c>
+      <c r="G66">
+        <v>0.02795364494970401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05421398178445895</v>
+        <v>0.04463866431967153</v>
       </c>
       <c r="C67">
-        <v>0.03292910178340033</v>
+        <v>0.02952191114693174</v>
       </c>
       <c r="D67">
-        <v>0.01465143162063442</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01434011919312135</v>
+      </c>
+      <c r="E67">
+        <v>0.03173847459128195</v>
+      </c>
+      <c r="F67">
+        <v>-0.005794330105669345</v>
+      </c>
+      <c r="G67">
+        <v>-0.002473623380398081</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1358278556394686</v>
+        <v>0.1545082342558442</v>
       </c>
       <c r="C68">
-        <v>-0.2801440945310685</v>
+        <v>-0.2393130385041156</v>
       </c>
       <c r="D68">
-        <v>0.004400179551465434</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005801694123834861</v>
+      </c>
+      <c r="E68">
+        <v>0.04929670714422435</v>
+      </c>
+      <c r="F68">
+        <v>-0.01316972209367715</v>
+      </c>
+      <c r="G68">
+        <v>-0.01118386201336262</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.09659104608056307</v>
+        <v>0.09127292764314288</v>
       </c>
       <c r="C69">
-        <v>0.07924486099913937</v>
+        <v>0.09178952197742798</v>
       </c>
       <c r="D69">
-        <v>0.03748921099762218</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.002362647278745499</v>
+      </c>
+      <c r="E69">
+        <v>0.06938593266574521</v>
+      </c>
+      <c r="F69">
+        <v>0.0006469397420359581</v>
+      </c>
+      <c r="G69">
+        <v>0.06837999723792496</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1208661880303242</v>
+        <v>0.1469087541222091</v>
       </c>
       <c r="C71">
-        <v>-0.2529925247136466</v>
+        <v>-0.2392339840973799</v>
       </c>
       <c r="D71">
-        <v>-0.02362220323516932</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01584762168195733</v>
+      </c>
+      <c r="E71">
+        <v>0.06819134740678758</v>
+      </c>
+      <c r="F71">
+        <v>-0.02597937293809231</v>
+      </c>
+      <c r="G71">
+        <v>0.04881112172755203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1026823160478723</v>
+        <v>0.1070483783823526</v>
       </c>
       <c r="C72">
-        <v>0.05255207095376958</v>
+        <v>0.05245725906547129</v>
       </c>
       <c r="D72">
-        <v>-0.02699864259161465</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.05876969748548531</v>
+      </c>
+      <c r="E72">
+        <v>0.039822059768904</v>
+      </c>
+      <c r="F72">
+        <v>-0.0359134572432352</v>
+      </c>
+      <c r="G72">
+        <v>0.05874432719357304</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.355177945690011</v>
+        <v>0.3082745075086782</v>
       </c>
       <c r="C73">
-        <v>0.0708025022056215</v>
+        <v>0.07140066470929529</v>
       </c>
       <c r="D73">
-        <v>-0.5311233666940118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4512896662213891</v>
+      </c>
+      <c r="E73">
+        <v>-0.5380174054856547</v>
+      </c>
+      <c r="F73">
+        <v>-0.1815865243986266</v>
+      </c>
+      <c r="G73">
+        <v>-0.04864022111500881</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1046450723092425</v>
+        <v>0.11002544115674</v>
       </c>
       <c r="C74">
-        <v>0.09035625593992014</v>
+        <v>0.08976454281896673</v>
       </c>
       <c r="D74">
-        <v>0.0461333591012958</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03987958368383346</v>
+      </c>
+      <c r="E74">
+        <v>0.06588559009955175</v>
+      </c>
+      <c r="F74">
+        <v>-0.0345798036036523</v>
+      </c>
+      <c r="G74">
+        <v>0.03130114843475128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2480303212662371</v>
+        <v>0.2534088270404208</v>
       </c>
       <c r="C75">
-        <v>0.09080366605980977</v>
+        <v>0.1232005408438444</v>
       </c>
       <c r="D75">
-        <v>0.1655444285787767</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1606930716414708</v>
+      </c>
+      <c r="E75">
+        <v>0.02328609924206377</v>
+      </c>
+      <c r="F75">
+        <v>-0.009771912623753326</v>
+      </c>
+      <c r="G75">
+        <v>0.02202575550173536</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1168112236428519</v>
+        <v>0.1302662036418804</v>
       </c>
       <c r="C76">
-        <v>0.07949595585587012</v>
+        <v>0.0906526972865699</v>
       </c>
       <c r="D76">
-        <v>0.08704218286218278</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07251848048272463</v>
+      </c>
+      <c r="E76">
+        <v>0.09357347427759267</v>
+      </c>
+      <c r="F76">
+        <v>-0.004225674853648356</v>
+      </c>
+      <c r="G76">
+        <v>0.04536083801143617</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.08506098446467306</v>
+        <v>0.0686230239613002</v>
       </c>
       <c r="C77">
-        <v>0.03863441707594906</v>
+        <v>0.06089532109926572</v>
       </c>
       <c r="D77">
-        <v>-0.06246315788519859</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.08855096200651057</v>
+      </c>
+      <c r="E77">
+        <v>0.114715681606806</v>
+      </c>
+      <c r="F77">
+        <v>0.2203379633464663</v>
+      </c>
+      <c r="G77">
+        <v>-0.1132232425704135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04668880898596948</v>
+        <v>0.04774599990701284</v>
       </c>
       <c r="C78">
-        <v>0.0470500928497295</v>
+        <v>0.05550766374336318</v>
       </c>
       <c r="D78">
-        <v>-0.05624315733744551</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08865908652347609</v>
+      </c>
+      <c r="E78">
+        <v>0.07944441671966719</v>
+      </c>
+      <c r="F78">
+        <v>-0.0002137608169513189</v>
+      </c>
+      <c r="G78">
+        <v>0.04030526932546566</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.001306472444482852</v>
+        <v>0.03722341316089284</v>
       </c>
       <c r="C79">
-        <v>1.956507442009805e-05</v>
+        <v>0.05295221198359584</v>
       </c>
       <c r="D79">
-        <v>-0.006219935720223435</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08859144912661999</v>
+      </c>
+      <c r="E79">
+        <v>0.08506984000976327</v>
+      </c>
+      <c r="F79">
+        <v>-0.03745038125946199</v>
+      </c>
+      <c r="G79">
+        <v>0.2567018268129564</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03753044368149746</v>
+        <v>0.031228265262397</v>
       </c>
       <c r="C80">
-        <v>0.04763349277292487</v>
+        <v>0.04734966943223302</v>
       </c>
       <c r="D80">
-        <v>-0.03502303739298866</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04241973398462059</v>
+      </c>
+      <c r="E80">
+        <v>0.01510658955679216</v>
+      </c>
+      <c r="F80">
+        <v>0.05162893514044713</v>
+      </c>
+      <c r="G80">
+        <v>-0.009087457394415006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1482999495128883</v>
+        <v>0.1435456275293802</v>
       </c>
       <c r="C81">
-        <v>0.07007016081621445</v>
+        <v>0.0915492095335867</v>
       </c>
       <c r="D81">
-        <v>0.1410698190025102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1259387769572507</v>
+      </c>
+      <c r="E81">
+        <v>0.06565758948209323</v>
+      </c>
+      <c r="F81">
+        <v>-0.004544203063104442</v>
+      </c>
+      <c r="G81">
+        <v>0.03351404890320924</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.2240339552181826</v>
+        <v>0.2413997570361739</v>
       </c>
       <c r="C82">
-        <v>0.10329954119526</v>
+        <v>0.1693250318592523</v>
       </c>
       <c r="D82">
-        <v>0.2031312470082835</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2493896434492135</v>
+      </c>
+      <c r="E82">
+        <v>-0.07761858666085589</v>
+      </c>
+      <c r="F82">
+        <v>0.02922444887162725</v>
+      </c>
+      <c r="G82">
+        <v>0.3682801078451496</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.0437094381275283</v>
+        <v>0.02954587163923609</v>
       </c>
       <c r="C83">
-        <v>0.04085614244849804</v>
+        <v>0.0483130301815653</v>
       </c>
       <c r="D83">
-        <v>-0.05105584876277235</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03657911026435836</v>
+      </c>
+      <c r="E83">
+        <v>0.02514016673941198</v>
+      </c>
+      <c r="F83">
+        <v>0.02877468994908172</v>
+      </c>
+      <c r="G83">
+        <v>0.005714639108691865</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>3.688188255262504e-06</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.002197120158317429</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0003604923497932942</v>
+      </c>
+      <c r="E84">
+        <v>0.009374634138441572</v>
+      </c>
+      <c r="F84">
+        <v>-0.002029022638484179</v>
+      </c>
+      <c r="G84">
+        <v>-0.008977998944449957</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1953413655687812</v>
+        <v>0.185557876685687</v>
       </c>
       <c r="C85">
-        <v>0.0944920898474701</v>
+        <v>0.1100587944822377</v>
       </c>
       <c r="D85">
-        <v>0.1541912182496159</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1304149260960247</v>
+      </c>
+      <c r="E85">
+        <v>0.003642231423125765</v>
+      </c>
+      <c r="F85">
+        <v>-0.04758118432675757</v>
+      </c>
+      <c r="G85">
+        <v>0.06748850713733782</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01416861029305255</v>
+        <v>0.01741744195018171</v>
       </c>
       <c r="C86">
-        <v>0.03076692049398198</v>
+        <v>0.01828669212355705</v>
       </c>
       <c r="D86">
-        <v>-0.06018749176035479</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.09060037248523164</v>
+      </c>
+      <c r="E86">
+        <v>0.0861313567267635</v>
+      </c>
+      <c r="F86">
+        <v>0.02149497640577859</v>
+      </c>
+      <c r="G86">
+        <v>0.05637489693369521</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.03466611608761262</v>
+        <v>0.03403832569746799</v>
       </c>
       <c r="C87">
-        <v>0.001984443414401905</v>
+        <v>0.01527958453505775</v>
       </c>
       <c r="D87">
-        <v>-0.07833012895116796</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1061675229148304</v>
+      </c>
+      <c r="E87">
+        <v>0.1332662827599725</v>
+      </c>
+      <c r="F87">
+        <v>0.05471010907184378</v>
+      </c>
+      <c r="G87">
+        <v>-0.0336224583413567</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1151644639949141</v>
+        <v>0.09693029603405029</v>
       </c>
       <c r="C88">
-        <v>0.09162220737088192</v>
+        <v>0.07146594266868568</v>
       </c>
       <c r="D88">
-        <v>0.008186581316574005</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02402489675608733</v>
+      </c>
+      <c r="E88">
+        <v>0.0382806399138404</v>
+      </c>
+      <c r="F88">
+        <v>0.01409129624180823</v>
+      </c>
+      <c r="G88">
+        <v>0.04610573188714154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1922728571143789</v>
+        <v>0.222906218582484</v>
       </c>
       <c r="C89">
-        <v>-0.3750244981741276</v>
+        <v>-0.3799398965363641</v>
       </c>
       <c r="D89">
-        <v>0.02038751694419101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.003870382362184986</v>
+      </c>
+      <c r="E89">
+        <v>0.07668747952040041</v>
+      </c>
+      <c r="F89">
+        <v>0.07833460180452931</v>
+      </c>
+      <c r="G89">
+        <v>0.02198119815190546</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1831095981449123</v>
+        <v>0.2027669120040374</v>
       </c>
       <c r="C90">
-        <v>-0.3302442692179312</v>
+        <v>-0.3070288666594452</v>
       </c>
       <c r="D90">
-        <v>0.02179088089641565</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.005202169588585957</v>
+      </c>
+      <c r="E90">
+        <v>0.05862314912346996</v>
+      </c>
+      <c r="F90">
+        <v>0.001722374937191444</v>
+      </c>
+      <c r="G90">
+        <v>-0.01257749817944229</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1928426776458537</v>
+        <v>0.1879927759457288</v>
       </c>
       <c r="C91">
-        <v>0.1279170776408292</v>
+        <v>0.1442065656669853</v>
       </c>
       <c r="D91">
-        <v>0.1495847946206058</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1304404820597257</v>
+      </c>
+      <c r="E91">
+        <v>0.04904914455122198</v>
+      </c>
+      <c r="F91">
+        <v>-0.006134335277516953</v>
+      </c>
+      <c r="G91">
+        <v>0.03224509956134657</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1649430100499036</v>
+        <v>0.1824811561889209</v>
       </c>
       <c r="C92">
-        <v>-0.2876078273059949</v>
+        <v>-0.2946698145500685</v>
       </c>
       <c r="D92">
-        <v>0.01790280288648674</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.006158593209717223</v>
+      </c>
+      <c r="E92">
+        <v>0.08743807978187626</v>
+      </c>
+      <c r="F92">
+        <v>0.03328876831482366</v>
+      </c>
+      <c r="G92">
+        <v>0.03423778444693784</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1977531958653652</v>
+        <v>0.2176894502405639</v>
       </c>
       <c r="C93">
-        <v>-0.3405813873331645</v>
+        <v>-0.318221598860638</v>
       </c>
       <c r="D93">
-        <v>0.03295285765351008</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01629422766724408</v>
+      </c>
+      <c r="E93">
+        <v>0.03535867759599512</v>
+      </c>
+      <c r="F93">
+        <v>-0.02109336013409545</v>
+      </c>
+      <c r="G93">
+        <v>0.03726645239228697</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.356940215881436</v>
+        <v>0.3475069223826946</v>
       </c>
       <c r="C94">
-        <v>0.1271368368878743</v>
+        <v>0.1788135586561922</v>
       </c>
       <c r="D94">
-        <v>0.4811331334905216</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4415174345923257</v>
+      </c>
+      <c r="E94">
+        <v>-0.05967662075370716</v>
+      </c>
+      <c r="F94">
+        <v>0.1014388050568866</v>
+      </c>
+      <c r="G94">
+        <v>-0.6147936008205694</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1132935760973921</v>
+        <v>0.08364789677036152</v>
       </c>
       <c r="C95">
-        <v>0.05182207337395372</v>
+        <v>0.06012278674076712</v>
       </c>
       <c r="D95">
-        <v>-0.2808155525868303</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.2140812729729316</v>
+      </c>
+      <c r="E95">
+        <v>-0.1183502526727508</v>
+      </c>
+      <c r="F95">
+        <v>0.8984172285555309</v>
+      </c>
+      <c r="G95">
+        <v>0.007984675442049036</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1857526762512556</v>
+        <v>0.1829163409663409</v>
       </c>
       <c r="C98">
-        <v>0.03342659911029827</v>
+        <v>0.04939383698836336</v>
       </c>
       <c r="D98">
-        <v>-0.2291654667872987</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2081050080536441</v>
+      </c>
+      <c r="E98">
+        <v>-0.1794979522039049</v>
+      </c>
+      <c r="F98">
+        <v>-0.1278671501760952</v>
+      </c>
+      <c r="G98">
+        <v>0.01865315476787369</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01171424584205091</v>
+        <v>0.008794681369603406</v>
       </c>
       <c r="C101">
-        <v>0.02719255863696965</v>
+        <v>0.02634046414647759</v>
       </c>
       <c r="D101">
-        <v>-0.003824232356303015</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.04083085613790743</v>
+      </c>
+      <c r="E101">
+        <v>0.08059397167137564</v>
+      </c>
+      <c r="F101">
+        <v>0.005768724717689759</v>
+      </c>
+      <c r="G101">
+        <v>0.04776696520427648</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1188098210272854</v>
+        <v>0.1210368763678922</v>
       </c>
       <c r="C102">
-        <v>0.06603608032555115</v>
+        <v>0.1004034085274833</v>
       </c>
       <c r="D102">
-        <v>0.06204378665202399</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06298406250968314</v>
+      </c>
+      <c r="E102">
+        <v>-0.004906345582066261</v>
+      </c>
+      <c r="F102">
+        <v>0.02508231242934534</v>
+      </c>
+      <c r="G102">
+        <v>0.05412416255317697</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
